--- a/data/complex_tars.xlsx
+++ b/data/complex_tars.xlsx
@@ -142,7 +142,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -178,7 +178,7 @@
         <v>13.82</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>11.46</v>
+        <v>23.94</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>7.12</v>
